--- a/VA03_Display_Order/Default.xlsx
+++ b/VA03_Display_Order/Default.xlsx
@@ -230,19 +230,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -544,10 +544,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="10.90234375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7578125" style="2" bestFit="1" customWidth="1"/>
@@ -558,7 +558,7 @@
     <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -579,22 +579,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
